--- a/medicine/Enfance/Gallimard_Jeunesse/Gallimard_Jeunesse.xlsx
+++ b/medicine/Enfance/Gallimard_Jeunesse/Gallimard_Jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gallimard Jeunesse[1] est un éditeur français de littérature de jeunesse, filiale du groupe Gallimard. Son siège se trouve au 5 rue Gaston Gallimard (Paris 7e). Son catalogue s’articule autour de 3 500 titres, 1 200 auteurs et environ 100 collections.
+Gallimard Jeunesse est un éditeur français de littérature de jeunesse, filiale du groupe Gallimard. Son siège se trouve au 5 rue Gaston Gallimard (Paris 7e). Son catalogue s’articule autour de 3 500 titres, 1 200 auteurs et environ 100 collections.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1972. Naissance du département jeunesse de Gallimard, sous l’impulsion de Pierre Marchand (1939-2002) et Jean-Olivier Héron. Lancement de la collection 1000 Soleils autour de grands classiques de la littérature (Les 4 premiers titres sont Le Lion de Joseph Kessel, L’enfant et la rivière de Henri Bosco, La guerre des boutons de Louis Pergaud, Le vieil homme et la mer de Ernest Hemingway)[2].
-1975. Premiers albums illustrés et début d’une longue collaboration avec de grands illustrateurs : Quentin Blake, Étienne Delessert, Jean Claverie, Roberto Innocenti, Georges Lemoine, Pef (Pierre Elie Ferrier dit Pef), Tony Ross…[2]
-1977. Création de Folio Junior, première collection de poche de Gallimard Jeunesse pour les 10-16 ans, peu après Jeunesse poche des Éditions de l'Amitié et Renard Poche de L'École des loisirs[2].
-1980. Création de Folio Benjamin et des premiers livres de poche illustrés et en couleur pour les 5-7 ans. Beatrix Potter, la créatrice de Pierre Lapin, entre au catalogue et Pef (Pierre Elie Ferrier) invente une langue dans La belle lisse poire du prince de Motordu[2].
-1983. Folio Cadet s’adresse aux lecteurs débutants (7-10 ans) avec des romans illustrés, des auteurs de renom et des textes inédits. Premiers pas dans le documentaire avec Découverte Cadet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1972. Naissance du département jeunesse de Gallimard, sous l’impulsion de Pierre Marchand (1939-2002) et Jean-Olivier Héron. Lancement de la collection 1000 Soleils autour de grands classiques de la littérature (Les 4 premiers titres sont Le Lion de Joseph Kessel, L’enfant et la rivière de Henri Bosco, La guerre des boutons de Louis Pergaud, Le vieil homme et la mer de Ernest Hemingway).
+1975. Premiers albums illustrés et début d’une longue collaboration avec de grands illustrateurs : Quentin Blake, Étienne Delessert, Jean Claverie, Roberto Innocenti, Georges Lemoine, Pef (Pierre Elie Ferrier dit Pef), Tony Ross…
+1977. Création de Folio Junior, première collection de poche de Gallimard Jeunesse pour les 10-16 ans, peu après Jeunesse poche des Éditions de l'Amitié et Renard Poche de L'École des loisirs.
+1980. Création de Folio Benjamin et des premiers livres de poche illustrés et en couleur pour les 5-7 ans. Beatrix Potter, la créatrice de Pierre Lapin, entre au catalogue et Pef (Pierre Elie Ferrier) invente une langue dans La belle lisse poire du prince de Motordu.
+1983. Folio Cadet s’adresse aux lecteurs débutants (7-10 ans) avec des romans illustrés, des auteurs de renom et des textes inédits. Premiers pas dans le documentaire avec Découverte Cadet.
 1984. Le premier titre des Livres dont vous êtes le Héros (Défis fantastiques, Loup solitaire, etc.) amorce un véritable phénomène : plus de 13 millions de volumes vendus.
-1986. Découvertes Gallimard réinvente le documentaire : près de 10 millions d'exemplaires vendus[2].
+1986. Découvertes Gallimard réinvente le documentaire : près de 10 millions d'exemplaires vendus.
 1987. Page Blanche ouvre la voie en France de la littérature inédite pour adolescents.
 1988. Après les Découverte Cadet, Découverte Benjamin et Découvertes Gallimard, parution de Les Yeux de la découverte : une collection de livres qui montrent ce que les autres livres racontent.
 1989. Le concept éditorial de Mes premières découvertes, pour les plus petits, utilise des films transparents, recto-verso, pour montrer l’intérieur des choses. Un succès international.
@@ -532,7 +546,7 @@
 1997. René Mettler réalise le premier album de la série documentaire La Nature au fil de…
 Le dictionnaire visuel VU propose sur 640 pages la définition par l’image de plus de 30000 termes.
 1998.
-Christine Baker, directrice éditoriale de Gallimard Jeunesse, découvre par hasard le manuscrit de J. K. Rowling, un texte inconnu et pas encore publié. Séduite par la qualité de la matière, elle achète les droits de la publication de Harry Potter pour la collection Folio Junior. Début d’un phénomène éditorial sans précédent dans l’histoire de la littérature. En 2011, les sept tomes comptent déjà 26 millions d'exemplaires vendus en France[3].
+Christine Baker, directrice éditoriale de Gallimard Jeunesse, découvre par hasard le manuscrit de J. K. Rowling, un texte inconnu et pas encore publié. Séduite par la qualité de la matière, elle achète les droits de la publication de Harry Potter pour la collection Folio Junior. Début d’un phénomène éditorial sans précédent dans l’histoire de la littérature. En 2011, les sept tomes comptent déjà 26 millions d'exemplaires vendus en France.
 Création du roman en Grand Format pour la jeunesse, avec le lancement de Les Royaumes du Nord, premier volume de la trilogie de Philip Pullman, À la croisée des mondes.
 Avec le développement du département Musique, Gallimard jeunesse souhaite favoriser l’éveil musical et lance plusieurs collections de livres-CD audio.
 2000. Giboulées : après la collection Mine de rien pour les petits, un nouvel ouvrage de Catherine Dolto, fondamental pour les adolescents, Dico ado.
@@ -573,7 +587,9 @@
           <t>Auteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les auteurs du catalogue, on peut citer (liste non exhaustive) :
 Marguerite Abouet (Aya de Yopougon, Akissi)
@@ -654,7 +670,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales collections de Gallimard Jeunesse sont :
 L'Âne Trotro
